--- a/as_seas_qnt_mes.xlsx
+++ b/as_seas_qnt_mes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\ajuste_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\CREAS\creas_r\gith_transito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5154EBBF-E4B2-4625-B135-EF6B58D57A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E33F2A-90F7-4CF0-9D19-7A27832E9DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E2557323-2F41-434A-AC9E-F6264BCD28F8}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>DADOS GERAIS</t>
-  </si>
-  <si>
-    <t>Quantidade de Abordagens</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>jan</t>
   </si>
@@ -78,13 +72,16 @@
   </si>
   <si>
     <t>dez</t>
+  </si>
+  <si>
+    <t>ano</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,20 +102,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -134,27 +117,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -177,17 +145,6 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -198,21 +155,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -549,99 +497,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A846171C-C502-4BA4-86FC-1057E741B024}">
-  <dimension ref="B1:N4"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="2:14" ht="48" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="2">
         <v>5615</v>
       </c>
-      <c r="D3" s="5">
+      <c r="C2" s="2">
         <v>4802</v>
       </c>
-      <c r="E3" s="5">
+      <c r="D2" s="2">
         <v>6014</v>
       </c>
-      <c r="F3" s="5">
+      <c r="E2" s="2">
         <v>4903</v>
       </c>
-      <c r="G3" s="5">
+      <c r="F2" s="2">
         <v>5715</v>
       </c>
-      <c r="H3" s="5">
+      <c r="G2" s="2">
         <v>5625</v>
       </c>
-      <c r="I3" s="5">
+      <c r="H2" s="2">
         <v>5652</v>
       </c>
-      <c r="J3" s="5">
+      <c r="I2" s="2">
         <v>5745</v>
       </c>
-      <c r="K3" s="5">
+      <c r="J2" s="2">
         <v>5128</v>
       </c>
-      <c r="L3" s="5">
+      <c r="K2" s="2">
         <v>5162</v>
       </c>
-      <c r="M3" s="5">
+      <c r="L2" s="2">
         <v>5051</v>
       </c>
-      <c r="N3" s="5">
+      <c r="M2" s="2">
         <v>5164</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
